--- a/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
@@ -114,11 +114,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -424,13 +424,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
@@ -61,8 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -104,7 +105,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -117,7 +118,7 @@
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Simple.verified.xlsx
@@ -43,9 +43,6 @@
   </x:si>
   <x:si>
     <x:t>john@company.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
@@ -473,11 +470,11 @@
       <x:c r="E2" s="1">
         <x:v>75000</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="F2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -485,10 +482,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:v>43546</x:v>
@@ -496,11 +493,11 @@
       <x:c r="E3" s="1">
         <x:v>120000</x:v>
       </x:c>
-      <x:c r="F3" s="1" t="s">
+      <x:c r="F3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
